--- a/esercizio 08-11 parte 2.xlsx
+++ b/esercizio 08-11 parte 2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spetr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spetr\Desktop\Esercizi Epicode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2B96F-FA50-49D9-B917-CFADF48B9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB08A36-15B4-49DA-9D66-A5B156D42CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{398F4B54-C8FC-413A-9FF7-A769F3EC1FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Svolgimento" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>PARTE 2
 Tra le informazioni raccolte tramite l’analisi dei requisiti avete: nella biblioteca lavorano 10 dipendenti che lavorano su turni e un direttore. All’interno ci sono 3 terminali per rispondere alle esigenze dei clienti (utilizzati dai dipendenti). La biblioteca è divisa su due piani e i volumi sono all’interno di scaffali. Di ogni libro esiste una sola copia. I libri possono essere consultati all’interno o all’esterno della biblioteca. Ad ogni cliente viene rilasciata una tessera associativa che riporta i dati del cliente e il codice cliente. Un cliente può prendere in prestito un solo libro alla volta.
@@ -53,9 +53,6 @@
 Codice del cliente che ha il libro</t>
   </si>
   <si>
-    <t>Dipendenti</t>
-  </si>
-  <si>
     <t>Autore</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Posizione</t>
   </si>
   <si>
-    <t>Libri</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>Clienti</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>Rossellini</t>
   </si>
   <si>
-    <t>Transazioni</t>
-  </si>
-  <si>
     <t>Tipologia</t>
   </si>
   <si>
@@ -375,6 +363,21 @@
   </si>
   <si>
     <t>Dipendente che ha effettuato transazione</t>
+  </si>
+  <si>
+    <t>LIBRI</t>
+  </si>
+  <si>
+    <t>UBICAZIONE</t>
+  </si>
+  <si>
+    <t>CLIENTI</t>
+  </si>
+  <si>
+    <t>DIPENDENTI</t>
+  </si>
+  <si>
+    <t>TRANSAZIONI</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,25 +421,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -445,6 +452,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7CF441AC-436B-4752-8F97-E20B23EF3BBB}" name="Tabella3" displayName="Tabella3" ref="A2:I6" totalsRowShown="0">
+  <autoFilter ref="A2:I6" xr:uid="{7CF441AC-436B-4752-8F97-E20B23EF3BBB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1DB00D5F-1A10-4810-A5BA-5C5CB48B5AA7}" name="#"/>
+    <tableColumn id="2" xr3:uid="{CB7D692F-73B6-442E-95A6-4CECC402EAFC}" name="Autore"/>
+    <tableColumn id="3" xr3:uid="{D66FC04C-2034-40AC-8AEF-C8C0B8282569}" name="Titolo"/>
+    <tableColumn id="4" xr3:uid="{9B54B8F1-304A-4C8D-9095-F05B57A86FDD}" name="Casa Editrice"/>
+    <tableColumn id="5" xr3:uid="{801ADE49-E3CA-4495-9982-A490E354DE2D}" name="Genere"/>
+    <tableColumn id="6" xr3:uid="{5026330E-3D32-4345-84E1-7F0B1C81FEDF}" name="Pagine"/>
+    <tableColumn id="7" xr3:uid="{9C945F7A-A0F7-4C0E-8F2E-154D6C14CF3E}" name="Ubicazione"/>
+    <tableColumn id="8" xr3:uid="{14216652-1B2F-4EB8-9056-5F9BA998865E}" name="Disponibile?"/>
+    <tableColumn id="9" xr3:uid="{4082D67D-3C35-4715-B7E1-4B50AB7698C0}" name="Periodo di consultazione/prestito"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8E9C2A99-1709-4C01-A06D-5BCF6BB3521D}" name="Tabella4" displayName="Tabella4" ref="A9:D13" totalsRowShown="0">
+  <autoFilter ref="A9:D13" xr:uid="{8E9C2A99-1709-4C01-A06D-5BCF6BB3521D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7EB0FF30-59A1-46B5-9EDD-02111131D287}" name="#"/>
+    <tableColumn id="2" xr3:uid="{A1C4F623-5906-49EE-AE8B-335E9FC21BAF}" name="Piano"/>
+    <tableColumn id="3" xr3:uid="{9D1F9715-5245-4EB7-9D68-23B1F04692B8}" name="Scaffale"/>
+    <tableColumn id="4" xr3:uid="{545F0188-FEEA-479D-B568-70D950A07ADB}" name="Posizione"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF74A62-B557-4681-A5B2-F283C63A1C73}" name="Tabella5" displayName="Tabella5" ref="F9:I12" totalsRowShown="0">
+  <autoFilter ref="F9:I12" xr:uid="{ECF74A62-B557-4681-A5B2-F283C63A1C73}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{904F4C03-50C9-470A-B502-8A00490D75F8}" name="#"/>
+    <tableColumn id="2" xr3:uid="{75CD233D-141F-4DA4-AC9B-6DEE4BAF6CAD}" name="Numero Tessera" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{42E28F5B-87A1-4337-AC19-C5F518A18A25}" name="Nome"/>
+    <tableColumn id="4" xr3:uid="{3461DA84-484F-43C5-890C-FD9E0F079B9B}" name="Cognome"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87C38CA9-3D0D-4D3D-B9C6-B5C0EFB5149F}" name="Tabella7" displayName="Tabella7" ref="A16:C26" totalsRowShown="0">
+  <autoFilter ref="A16:C26" xr:uid="{87C38CA9-3D0D-4D3D-B9C6-B5C0EFB5149F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5207934-888E-42F0-A2E8-781564B3356F}" name="#"/>
+    <tableColumn id="2" xr3:uid="{87B2061F-6740-4CC0-85BB-62FBEEF95977}" name="Nome"/>
+    <tableColumn id="3" xr3:uid="{D7B6B56C-EDBA-4A83-A9EC-FE27F87EE501}" name="Cognome"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CA9A26FD-5A06-4F7A-B694-13C3B57E126E}" name="Tabella8" displayName="Tabella8" ref="E16:J19" totalsRowShown="0">
+  <autoFilter ref="E16:J19" xr:uid="{CA9A26FD-5A06-4F7A-B694-13C3B57E126E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2D54B356-574E-4A01-B14D-11E12556DFEB}" name="#"/>
+    <tableColumn id="2" xr3:uid="{08D82E25-E158-4EFD-A696-6252A12F8F9F}" name="Tipologia"/>
+    <tableColumn id="3" xr3:uid="{803685F8-0A85-46ED-BC53-39904FDA4C1A}" name="Libro"/>
+    <tableColumn id="4" xr3:uid="{E8792D11-A1F6-4C77-BC11-C50C8AD109F8}" name="Cliente"/>
+    <tableColumn id="5" xr3:uid="{6CD7FF1D-E283-45B0-B3E5-B09EF0CADD51}" name="Data/ora transazione"/>
+    <tableColumn id="6" xr3:uid="{04B6B6CE-0606-4AA0-AF72-3081267CE440}" name="Dipendente che ha effettuato transazione"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,7 +824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399C74E1-3ADC-477F-9912-B029E0CF714C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -764,29 +844,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2E6023-2BA5-4DC9-AD86-D013DAA6D081}">
-  <dimension ref="A1:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB21446-424D-42C9-9E1F-57610C9BE8B9}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -796,484 +877,507 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="K8" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="s">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L1:N1"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:J15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>